--- a/売上データ.xlsx
+++ b/売上データ.xlsx
@@ -1,139 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusei_okuyama/Desktop/ExcelPython/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56953819-D4D9-EC42-B92F-C2591F23B4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25620" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="460" windowWidth="25620" windowHeight="16320" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="4月" sheetId="1" r:id="rId1"/>
-    <sheet name="5月" sheetId="2" r:id="rId2"/>
-    <sheet name="6月" sheetId="3" r:id="rId3"/>
+    <sheet name="4月" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="5月" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="6月" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="第1四半期" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>売上データ</t>
-  </si>
-  <si>
-    <t>売上日</t>
-  </si>
-  <si>
-    <t>顧客名称</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>単価</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>小計</t>
-  </si>
-  <si>
-    <t>株式会社 A</t>
-  </si>
-  <si>
-    <t>商品 A</t>
-  </si>
-  <si>
-    <t>株式会社 B</t>
-  </si>
-  <si>
-    <t>商品 B</t>
-  </si>
-  <si>
-    <t>株式会社 C</t>
-  </si>
-  <si>
-    <t>商品 C</t>
-  </si>
-  <si>
-    <t>株式会社 D</t>
-  </si>
-  <si>
-    <t>商品 D</t>
-  </si>
-  <si>
-    <t>株式会社 E</t>
-  </si>
-  <si>
-    <t>商品 E</t>
-  </si>
-  <si>
-    <t>株式会社 F</t>
-  </si>
-  <si>
-    <t>商品 F</t>
-  </si>
-  <si>
-    <t>株式会社 鈴木商店</t>
-  </si>
-  <si>
-    <t>商品Z</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,31 +64,90 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -473,190 +447,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F4:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col width="22.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>売上データ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>顧客名称</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>商品名</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>株式会社 A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>商品 A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <f>D4 * E4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>43923</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>株式会社 B</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>商品 B</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <f>D5 * E5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>43924</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>株式会社 C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>商品 C</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F6" s="5">
+        <f>D6 * E6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>43925</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>株式会社 D</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>商品 D</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3800</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7 * E7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>43926</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>株式会社 E</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>商品 E</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8 * E8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>43927</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>株式会社 F</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>商品 F</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E9" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="0">D4 * E4</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7200</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7200</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43925</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="F9" s="5">
+        <f>D9 * E9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>43926</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>株式会社 鈴木商店</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>商品Z</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43926</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5">
-        <v>7200</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>43926</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3800</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>12</v>
       </c>
       <c r="F10" s="5">
         <f>D10 * E10</f>
-        <v>45600</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -665,27 +685,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A4:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>株式会社 ZZ社</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>商品Z</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>株式会社 wssx社</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>商品aaa</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>株式会社 JJJ社</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>商品J</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f>D6*E6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>